--- a/Arbeitspakete-2.xlsx
+++ b/Arbeitspakete-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -139,13 +139,37 @@
   </si>
   <si>
     <t>Dauer in Stunden IST</t>
+  </si>
+  <si>
+    <t>Stundensatz (€)</t>
+  </si>
+  <si>
+    <t>Stundensatz (€)/Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Materialkosten</t>
+  </si>
+  <si>
+    <t>Selbstkosten</t>
+  </si>
+  <si>
+    <t>Kalkulierter Gewinn</t>
+  </si>
+  <si>
+    <t>Projektgesamtkosten</t>
+  </si>
+  <si>
+    <t>Fremdleistungen (externer Berater, externe Firmen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +183,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +242,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -403,11 +459,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -431,9 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,12 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,9 +541,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,9 +858,12 @@
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
@@ -779,18 +876,24 @@
       <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="27"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -800,15 +903,22 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="25">
-        <f>C3*D3</f>
+      <c r="E3" s="24">
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>5</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>18.75</v>
+      </c>
+      <c r="H3">
+        <f>G3*F3</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -818,15 +928,22 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="20">
-        <f>C4*D4</f>
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>18.75</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" ref="H4:H38" si="1">G4*F4</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -836,15 +953,22 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="20">
-        <f>C5*D5</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.75</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -854,16 +978,23 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="20">
-        <f>C6*D6</f>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>7.5</v>
       </c>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>18.75</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="1"/>
+        <v>140.625</v>
+      </c>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -873,15 +1004,22 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="20">
-        <f>C7*D7</f>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>18.75</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -891,15 +1029,22 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
-        <f>C8*D8</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="40">
+        <v>111.25</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="1"/>
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -909,15 +1054,22 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
-        <f>C9*D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="39">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -927,15 +1079,22 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="20">
-        <f>C10*D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -945,15 +1104,22 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="20">
-        <f>C11*D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
@@ -963,18 +1129,25 @@
       <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="20">
-        <f>C12*D12</f>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="41">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="1"/>
+        <v>168.75</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -984,422 +1157,636 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="20">
-        <f>C13*D13</f>
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="26">
-        <f>C14*D14</f>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27">
-        <f>C15*D15</f>
+      <c r="C15" s="29"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="31"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="22">
+      <c r="B16" s="35"/>
+      <c r="C16" s="21">
         <v>0.5</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="25">
-        <f>C16*D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="23">
+      <c r="B17" s="35"/>
+      <c r="C17" s="22">
         <v>0.5</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="20">
-        <f>C17*D17</f>
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="23">
+      <c r="B18" s="35"/>
+      <c r="C18" s="22">
         <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="20">
-        <f>C18*D18</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23">
+      <c r="B19" s="35"/>
+      <c r="C19" s="22">
         <v>0.5</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
-        <f>C19*D19</f>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="23">
+      <c r="B20" s="35"/>
+      <c r="C20" s="22">
         <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="20">
-        <f>C20*D20</f>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="41">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H20" s="39">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="23">
+      <c r="B21" s="35"/>
+      <c r="C21" s="22">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="20">
-        <f>C21*D21</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="23">
+      <c r="B22" s="35"/>
+      <c r="C22" s="22">
         <v>1.5</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
-        <f>C22*D22</f>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H22" s="39">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23">
+      <c r="B23" s="35"/>
+      <c r="C23" s="22">
         <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="20">
-        <f>C23*D23</f>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="23">
+      <c r="B24" s="35"/>
+      <c r="C24" s="22">
         <v>1.5</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="20">
-        <f>C24*D24</f>
+      <c r="E24" s="19">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="41">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="33">
+      <c r="B25" s="35"/>
+      <c r="C25" s="30">
         <v>1.5</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="26">
-        <f>C25*D25</f>
+      <c r="E25" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H25" s="39">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27">
-        <f>C26*D26</f>
+      <c r="B26" s="36"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="31"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="22">
+      <c r="B27" s="35"/>
+      <c r="C27" s="21">
         <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="25">
-        <f>C27*D27</f>
+      <c r="E27" s="24">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H27" s="39">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="23">
+      <c r="B28" s="35"/>
+      <c r="C28" s="22">
         <v>4</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="20">
-        <f>C28*D28</f>
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="41">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="G28" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="1"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="33">
+      <c r="B29" s="35"/>
+      <c r="C29" s="30">
         <v>7</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="26">
-        <f>C29*D29</f>
+      <c r="E29" s="25">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H29" s="39">
+        <f t="shared" si="1"/>
+        <v>656.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27">
-        <f>C30*D30</f>
+      <c r="B30" s="26"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="31"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>3</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="25">
-        <f>C31*D31</f>
+      <c r="E31" s="24">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H31" s="39">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="20">
-        <f>C32*D32</f>
+      <c r="E32" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H32" s="39">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>1.5</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="20">
-        <f>C33*D33</f>
+      <c r="E33" s="19">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="39">
+        <v>111.25</v>
+      </c>
+      <c r="H33" s="39">
+        <f t="shared" si="1"/>
+        <v>333.75</v>
+      </c>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="20">
-        <f>C34*D34</f>
+      <c r="E34" s="19">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="39">
+        <v>18.75</v>
+      </c>
+      <c r="H34" s="39">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>2.5</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="20">
-        <f>C35*D35</f>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="38">
+        <v>0</v>
+      </c>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>SUM(C3:C35)</f>
         <v>48</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="47">
         <f>SUM(E3:E35)</f>
         <v>150</v>
       </c>
       <c r="F36">
         <f>SUM(F3:F35)</f>
         <v>150</v>
+      </c>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="46"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38" s="39">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44">
+        <f>SUM(H3:H38)</f>
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40">
+        <f>H39*0.06</f>
+        <v>198.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42">
+        <f>H39+H40</f>
+        <v>3513.9</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete-2.xlsx
+++ b/Arbeitspakete-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -541,6 +541,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -550,19 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,10 +876,10 @@
       <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="G4">
         <v>18.75</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="36">
         <f t="shared" ref="H4:H38" si="1">G4*F4</f>
         <v>9.375</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="G5">
         <v>18.75</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="36">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -976,21 +976,21 @@
         <v>1.5</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="19">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>18.75</v>
       </c>
-      <c r="H6" s="39">
-        <f t="shared" si="1"/>
-        <v>140.625</v>
+      <c r="H6" s="36">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
       </c>
       <c r="J6" s="33"/>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="G7">
         <v>18.75</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="36">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1036,10 +1036,10 @@
       <c r="F8" s="19">
         <v>2</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="37">
         <v>111.25</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="36">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
@@ -1061,10 +1061,10 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H9" s="39">
+      <c r="G9" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="36">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1086,10 +1086,10 @@
       <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H10" s="39">
+      <c r="G10" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="36">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1111,10 +1111,10 @@
       <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H11" s="39">
+      <c r="G11" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="36">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1133,13 +1133,13 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="38">
         <v>9</v>
       </c>
-      <c r="G12" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H12" s="39">
+      <c r="G12" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H12" s="36">
         <f t="shared" si="1"/>
         <v>168.75</v>
       </c>
@@ -1164,10 +1164,10 @@
       <c r="F13" s="19">
         <v>0.5</v>
       </c>
-      <c r="G13" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H13" s="39">
+      <c r="G13" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H13" s="36">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1180,28 +1180,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="25">
-        <v>3</v>
-      </c>
-      <c r="G14" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H14" s="39">
-        <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H14" s="36">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="29"/>
@@ -1211,39 +1211,39 @@
         <v>0</v>
       </c>
       <c r="F15" s="31"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="21">
         <v>0.5</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="22">
         <v>0.5</v>
       </c>
@@ -1257,10 +1257,10 @@
       <c r="F17" s="19">
         <v>0.5</v>
       </c>
-      <c r="G17" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="G17" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H17" s="36">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="22">
         <v>1</v>
       </c>
@@ -1283,10 +1283,10 @@
       <c r="F18" s="19">
         <v>2</v>
       </c>
-      <c r="G18" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H18" s="39">
+      <c r="G18" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H18" s="36">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="22">
         <v>0.5</v>
       </c>
@@ -1309,10 +1309,10 @@
       <c r="F19" s="19">
         <v>0.5</v>
       </c>
-      <c r="G19" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H19" s="39">
+      <c r="G19" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H19" s="36">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="22">
         <v>3</v>
       </c>
@@ -1332,13 +1332,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>10</v>
       </c>
-      <c r="G20" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H20" s="39">
+      <c r="G20" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H20" s="36">
         <f t="shared" si="1"/>
         <v>187.5</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="22">
         <v>1</v>
       </c>
@@ -1361,10 +1361,10 @@
       <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H21" s="39">
+      <c r="G21" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H21" s="36">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="22">
         <v>1.5</v>
       </c>
@@ -1387,10 +1387,10 @@
       <c r="F22" s="19">
         <v>1.5</v>
       </c>
-      <c r="G22" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H22" s="39">
+      <c r="G22" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H22" s="36">
         <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -1413,10 +1413,10 @@
       <c r="F23" s="19">
         <v>6</v>
       </c>
-      <c r="G23" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="G23" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H23" s="36">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="22">
         <v>1.5</v>
       </c>
@@ -1436,13 +1436,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="38">
         <v>5</v>
       </c>
-      <c r="G24" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H24" s="39">
+      <c r="G24" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H24" s="36">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="30">
         <v>1.5</v>
       </c>
@@ -1465,10 +1465,10 @@
       <c r="F25" s="25">
         <v>3</v>
       </c>
-      <c r="G25" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="G25" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H25" s="36">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="29"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26">
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="31"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="21">
         <v>3</v>
       </c>
@@ -1505,10 +1505,10 @@
       <c r="F27" s="24">
         <v>12</v>
       </c>
-      <c r="G27" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H27" s="39">
+      <c r="G27" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H27" s="36">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="22">
         <v>4</v>
       </c>
@@ -1528,13 +1528,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="38">
         <v>18</v>
       </c>
-      <c r="G28" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H28" s="39">
+      <c r="G28" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H28" s="36">
         <f t="shared" si="1"/>
         <v>337.5</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="A29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="30">
         <v>7</v>
       </c>
@@ -1557,10 +1557,10 @@
       <c r="F29" s="25">
         <v>35</v>
       </c>
-      <c r="G29" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H29" s="39">
+      <c r="G29" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H29" s="36">
         <f t="shared" si="1"/>
         <v>656.25</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="31"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1596,10 +1596,10 @@
       <c r="F31" s="24">
         <v>3</v>
       </c>
-      <c r="G31" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H31" s="36">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -1612,21 +1612,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>6</v>
-      </c>
-      <c r="G32" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H32" s="39">
-        <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>3</v>
+      </c>
+      <c r="G32" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H32" s="36">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1646,14 +1646,14 @@
       <c r="F33" s="19">
         <v>3</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="36">
         <v>111.25</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="36">
         <f t="shared" si="1"/>
         <v>333.75</v>
       </c>
-      <c r="I33" s="39"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1672,10 +1672,10 @@
       <c r="F34" s="19">
         <v>5</v>
       </c>
-      <c r="G34" s="39">
-        <v>18.75</v>
-      </c>
-      <c r="H34" s="39">
+      <c r="G34" s="36">
+        <v>18.75</v>
+      </c>
+      <c r="H34" s="36">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1697,72 +1697,72 @@
       <c r="F35" s="19">
         <v>0</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="35">
         <v>0</v>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>SUM(C3:C35)</f>
         <v>48</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="44">
         <f>SUM(E3:E35)</f>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F36">
         <f>SUM(F3:F35)</f>
-        <v>150</v>
-      </c>
-      <c r="H36" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="46"/>
-      <c r="H37" s="39"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="43"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="42">
         <v>0.5</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="38">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="38">
+      <c r="E38" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="35">
         <v>0.5</v>
       </c>
       <c r="G38">
         <v>80</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="36">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41">
         <f>SUM(H3:H38)</f>
-        <v>3315</v>
+        <v>3202.5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,22 +1771,22 @@
       </c>
       <c r="H40">
         <f>H39*0.06</f>
-        <v>198.9</v>
+        <v>192.15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39">
         <f>H39+H40</f>
-        <v>3513.9</v>
+        <v>3394.65</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete-2.xlsx
+++ b/Arbeitspakete-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -488,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -563,6 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -846,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,15 +989,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F6" s="19">
-        <v>6</v>
+      <c r="F6" s="48">
+        <v>5</v>
       </c>
       <c r="G6">
         <v>18.75</v>
       </c>
       <c r="H6" s="36">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>93.75</v>
       </c>
       <c r="J6" s="33"/>
     </row>
@@ -1280,15 +1287,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="19">
-        <v>2</v>
+      <c r="F18" s="38">
+        <v>3</v>
       </c>
       <c r="G18" s="36">
         <v>18.75</v>
       </c>
       <c r="H18" s="36">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/Arbeitspakete-2.xlsx
+++ b/Arbeitspakete-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -147,19 +147,19 @@
     <t>Stundensatz (€)/Mitarbeiter</t>
   </si>
   <si>
-    <t>Materialkosten</t>
-  </si>
-  <si>
     <t>Selbstkosten</t>
   </si>
   <si>
     <t>Kalkulierter Gewinn</t>
   </si>
   <si>
-    <t>Projektgesamtkosten</t>
-  </si>
-  <si>
     <t>Fremdleistungen (externer Berater, externe Firmen)</t>
+  </si>
+  <si>
+    <t>Lizenz 3CX</t>
+  </si>
+  <si>
+    <t>SIP-TRUNK</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -560,6 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -569,7 +570,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -851,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="24">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E39" si="0">C3*D3</f>
         <v>5</v>
       </c>
       <c r="F3" s="19">
@@ -946,7 +948,7 @@
         <v>18.75</v>
       </c>
       <c r="H4" s="36">
-        <f t="shared" ref="H4:H38" si="1">G4*F4</f>
+        <f t="shared" ref="H4:H39" si="1">G4*F4</f>
         <v>9.375</v>
       </c>
     </row>
@@ -989,7 +991,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <v>5</v>
       </c>
       <c r="G6">
@@ -1208,7 +1210,7 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="29"/>
@@ -1224,7 +1226,7 @@
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="21">
         <v>0.5</v>
       </c>
@@ -1239,18 +1241,18 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="36">
-        <v>18.75</v>
+        <v>111.25</v>
       </c>
       <c r="H16" s="36">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>55.625</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="22">
         <v>0.5</v>
       </c>
@@ -1276,7 +1278,7 @@
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="22">
         <v>1</v>
       </c>
@@ -1302,7 +1304,7 @@
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="22">
         <v>0.5</v>
       </c>
@@ -1328,7 +1330,7 @@
       <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="22">
         <v>3</v>
       </c>
@@ -1354,7 +1356,7 @@
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="22">
         <v>1</v>
       </c>
@@ -1380,7 +1382,7 @@
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="22">
         <v>1.5</v>
       </c>
@@ -1406,7 +1408,7 @@
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -1432,7 +1434,7 @@
       <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="22">
         <v>1.5</v>
       </c>
@@ -1458,7 +1460,7 @@
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="30">
         <v>1.5</v>
       </c>
@@ -1484,7 +1486,7 @@
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="29"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26">
@@ -1498,7 +1500,7 @@
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="21">
         <v>3</v>
       </c>
@@ -1524,7 +1526,7 @@
       <c r="A28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="22">
         <v>4</v>
       </c>
@@ -1550,7 +1552,7 @@
       <c r="A29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="30">
         <v>7</v>
       </c>
@@ -1724,76 +1726,87 @@
       </c>
       <c r="H36" s="36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="H37" s="50">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="43"/>
+      <c r="H38" s="36">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <v>80</v>
+      </c>
+      <c r="H39" s="36">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="43"/>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="35">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>80</v>
-      </c>
-      <c r="H38" s="36">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41">
+        <f>SUM(H3:H39)</f>
+        <v>8013.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41">
-        <f>SUM(H3:H38)</f>
-        <v>3202.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40">
-        <f>H39*0.06</f>
-        <v>192.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39">
-        <f>H39+H40</f>
-        <v>3394.65</v>
+      <c r="H41">
+        <f>H40*0.06</f>
+        <v>480.82499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39">
+        <f>H40+H41</f>
+        <v>8494.5750000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitspakete-2.xlsx
+++ b/Arbeitspakete-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -153,21 +153,31 @@
     <t>Kalkulierter Gewinn</t>
   </si>
   <si>
-    <t>Projektgesamtkosten</t>
-  </si>
-  <si>
     <t>Fremdleistungen (externer Berater, externe Firmen)</t>
   </si>
   <si>
     <t>Konzeptdokumentation erstellen</t>
+  </si>
+  <si>
+    <t>SIP Trunk</t>
+  </si>
+  <si>
+    <t>32 Lizenzen</t>
+  </si>
+  <si>
+    <t>Projektgesamtkosten netto</t>
+  </si>
+  <si>
+    <t>Projektgesamtkosten brutto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -497,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -549,26 +559,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +579,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -861,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,16 +935,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="20">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E40" si="0">C3*D3</f>
         <v>5</v>
       </c>
       <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>18.75</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H3" s="52">
         <f>G3*F3</f>
         <v>93.75</v>
       </c>
@@ -952,11 +966,11 @@
       <c r="F4" s="16">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>18.75</v>
-      </c>
-      <c r="H4" s="32">
-        <f t="shared" ref="H4:H38" si="1">G4*F4</f>
+      <c r="G4" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H4" s="52">
+        <f t="shared" ref="H4:H40" si="1">G4*F4</f>
         <v>9.375</v>
       </c>
     </row>
@@ -977,10 +991,10 @@
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>18.75</v>
-      </c>
-      <c r="H5" s="32">
+      <c r="G5" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H5" s="52">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -999,13 +1013,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="39">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>18.75</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H6" s="52">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1028,10 +1042,10 @@
       <c r="F7" s="16">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>18.75</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H7" s="52">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1053,10 +1067,10 @@
       <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="52">
         <v>111.25</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="52">
         <f t="shared" si="1"/>
         <v>222.5</v>
       </c>
@@ -1078,10 +1092,10 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H9" s="52">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1103,10 +1117,10 @@
       <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H10" s="52">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1128,10 +1142,10 @@
       <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="G11" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H11" s="32">
+      <c r="G11" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="52">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1150,13 +1164,13 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>9</v>
       </c>
-      <c r="G12" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H12" s="32">
+      <c r="G12" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H12" s="52">
         <f t="shared" si="1"/>
         <v>168.75</v>
       </c>
@@ -1181,10 +1195,10 @@
       <c r="F13" s="16">
         <v>0.5</v>
       </c>
-      <c r="G13" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H13" s="32">
+      <c r="G13" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H13" s="52">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1203,13 +1217,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="51">
-        <v>1</v>
-      </c>
-      <c r="G14" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H14" s="32">
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H14" s="52">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -1218,20 +1232,21 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="27"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="17">
         <v>0.5</v>
       </c>
@@ -1245,10 +1260,10 @@
       <c r="F16" s="20">
         <v>0.5</v>
       </c>
-      <c r="G16" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="G16" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H16" s="52">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1257,7 +1272,7 @@
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="18">
         <v>0.5</v>
       </c>
@@ -1271,10 +1286,10 @@
       <c r="F17" s="16">
         <v>0.5</v>
       </c>
-      <c r="G17" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="G17" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H17" s="52">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1283,7 +1298,7 @@
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="18">
         <v>1</v>
       </c>
@@ -1294,13 +1309,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>3</v>
       </c>
-      <c r="G18" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H18" s="32">
+      <c r="G18" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H18" s="52">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -1309,7 +1324,7 @@
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="18">
         <v>0.5</v>
       </c>
@@ -1323,10 +1338,10 @@
       <c r="F19" s="16">
         <v>0.5</v>
       </c>
-      <c r="G19" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H19" s="32">
+      <c r="G19" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H19" s="52">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
@@ -1335,7 +1350,7 @@
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="18">
         <v>3</v>
       </c>
@@ -1346,13 +1361,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>10</v>
       </c>
-      <c r="G20" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H20" s="32">
+      <c r="G20" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H20" s="52">
         <f t="shared" si="1"/>
         <v>187.5</v>
       </c>
@@ -1361,7 +1376,7 @@
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="18">
         <v>1</v>
       </c>
@@ -1375,10 +1390,10 @@
       <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H21" s="32">
+      <c r="G21" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H21" s="52">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
@@ -1387,7 +1402,7 @@
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="18">
         <v>1.5</v>
       </c>
@@ -1401,10 +1416,10 @@
       <c r="F22" s="16">
         <v>1.5</v>
       </c>
-      <c r="G22" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="G22" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H22" s="52">
         <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
@@ -1413,7 +1428,7 @@
       <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="18">
         <v>2</v>
       </c>
@@ -1427,10 +1442,10 @@
       <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H23" s="32">
+      <c r="G23" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H23" s="52">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -1439,7 +1454,7 @@
       <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="18">
         <v>1.5</v>
       </c>
@@ -1450,13 +1465,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>5</v>
       </c>
-      <c r="G24" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H24" s="32">
+      <c r="G24" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H24" s="52">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1465,7 +1480,7 @@
       <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="26">
         <v>1.5</v>
       </c>
@@ -1479,10 +1494,10 @@
       <c r="F25" s="21">
         <v>3</v>
       </c>
-      <c r="G25" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H25" s="32">
+      <c r="G25" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H25" s="52">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -1491,18 +1506,19 @@
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="25"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="27"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="17">
         <v>3</v>
       </c>
@@ -1516,10 +1532,10 @@
       <c r="F27" s="20">
         <v>12</v>
       </c>
-      <c r="G27" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H27" s="32">
+      <c r="G27" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H27" s="52">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
@@ -1528,7 +1544,7 @@
       <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="18">
         <v>4</v>
       </c>
@@ -1539,13 +1555,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <v>18</v>
       </c>
-      <c r="G28" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H28" s="32">
+      <c r="G28" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H28" s="52">
         <f t="shared" si="1"/>
         <v>337.5</v>
       </c>
@@ -1554,7 +1570,7 @@
       <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="26">
         <v>7</v>
       </c>
@@ -1568,36 +1584,36 @@
       <c r="F29" s="21">
         <v>35</v>
       </c>
-      <c r="G29" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H29" s="32">
+      <c r="G29" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H29" s="52">
         <f t="shared" si="1"/>
         <v>656.25</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="46">
-        <v>2</v>
-      </c>
-      <c r="D30" s="47">
+      <c r="A30" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="41">
+        <v>2</v>
+      </c>
+      <c r="D30" s="42">
         <v>3</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="45">
         <v>3</v>
       </c>
-      <c r="G30" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H30" s="32">
+      <c r="G30" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H30" s="52">
         <f>G30*F30</f>
         <v>56.25</v>
       </c>
@@ -1611,8 +1627,8 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1631,10 +1647,10 @@
       <c r="F32" s="16">
         <v>6</v>
       </c>
-      <c r="G32" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H32" s="32">
+      <c r="G32" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H32" s="52">
         <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
@@ -1656,10 +1672,10 @@
       <c r="F33" s="16">
         <v>3</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="52">
         <v>111.25</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="52">
         <f t="shared" si="1"/>
         <v>333.75</v>
       </c>
@@ -1682,10 +1698,10 @@
       <c r="F34" s="16">
         <v>5</v>
       </c>
-      <c r="G34" s="32">
-        <v>18.75</v>
-      </c>
-      <c r="H34" s="32">
+      <c r="G34" s="52">
+        <v>18.75</v>
+      </c>
+      <c r="H34" s="52">
         <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
@@ -1707,17 +1723,17 @@
       <c r="F35" s="16">
         <v>0</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="54">
         <v>0</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>SUM(C3:C35)</f>
         <v>46</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="38">
         <f>SUM(E3:E35)</f>
         <v>144</v>
       </c>
@@ -1732,61 +1748,57 @@
         <v>41</v>
       </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="39"/>
+      <c r="F37" s="37"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>80</v>
-      </c>
-      <c r="H38" s="32">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37">
-        <f>SUM(H3:H38)</f>
-        <v>3202.5</v>
+    <row r="38" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="H38" s="50">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="37"/>
+      <c r="H39" s="50">
+        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40">
-        <f>H39*0.06</f>
-        <v>192.15</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>80</v>
+      </c>
+      <c r="H40" s="52">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -1794,9 +1806,51 @@
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="35">
-        <f>H39+H40</f>
-        <v>3394.65</v>
+      <c r="H41" s="53">
+        <f>SUM(H3:H35)</f>
+        <v>3162.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="52">
+        <f>H41*0.07</f>
+        <v>221.37500000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="51">
+        <f>SUM(H38:H42)</f>
+        <v>7618.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="55">
+        <f>H44 *1.19</f>
+        <v>9066.4612500000003</v>
       </c>
     </row>
   </sheetData>
